--- a/DadosAcelerômetro/DadosBatidas.xlsx
+++ b/DadosAcelerômetro/DadosBatidas.xlsx
@@ -1498,24 +1498,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="250724088"/>
-        <c:axId val="250721016"/>
+        <c:axId val="336907368"/>
+        <c:axId val="336902376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="250724088"/>
+        <c:axId val="336907368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250721016"/>
+        <c:crossAx val="336902376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250721016"/>
+        <c:axId val="336902376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1523,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250724088"/>
+        <c:crossAx val="336907368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2346,24 +2346,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="250683576"/>
-        <c:axId val="250680536"/>
+        <c:axId val="281070936"/>
+        <c:axId val="281073800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="250683576"/>
+        <c:axId val="281070936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250680536"/>
+        <c:crossAx val="281073800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250680536"/>
+        <c:axId val="281073800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2371,7 +2371,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250683576"/>
+        <c:crossAx val="281070936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3200,24 +3200,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="253211688"/>
-        <c:axId val="253214712"/>
+        <c:axId val="281113400"/>
+        <c:axId val="281115688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="253211688"/>
+        <c:axId val="281113400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253214712"/>
+        <c:crossAx val="281115688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253214712"/>
+        <c:axId val="281115688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,7 +3225,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253211688"/>
+        <c:crossAx val="281113400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
